--- a/biology/Médecine/Édouard_Le_Bec/Édouard_Le_Bec.xlsx
+++ b/biology/Médecine/Édouard_Le_Bec/Édouard_Le_Bec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Le_Bec</t>
+          <t>Édouard_Le_Bec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Le Bec est un médecin, chirurgien et écrivain français né le 14 juin 1851 à Nantes et mort le 6 octobre 1941 à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Le_Bec</t>
+          <t>Édouard_Le_Bec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Édouard Marie Le Bec est le fils d'Édouard René Le Bec, un négociant nantais, et de Caroline Bergette. Distingué du 1er prix en 1872 (étudiants de 1re année)[1] et en 1873 (2e année) de l'École de médecine de Nantes[2], docteur en médecine de la faculté de Paris en 1880, il devient chirurgien de l'Hôpital Saint-Joseph de Paris. Il est promu médecin-major en 1887.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Édouard Marie Le Bec est le fils d'Édouard René Le Bec, un négociant nantais, et de Caroline Bergette. Distingué du 1er prix en 1872 (étudiants de 1re année) et en 1873 (2e année) de l'École de médecine de Nantes, docteur en médecine de la faculté de Paris en 1880, il devient chirurgien de l'Hôpital Saint-Joseph de Paris. Il est promu médecin-major en 1887.
 Membre de la Société médicale Saint-Luc depuis sa création, il en est le directeur du comité parisien et le président du conseil national en 1904.
-En 1909, lors de la fondation de la nouvelle Société des chirurgiens de Paris, il en devient vice-président du premier bureau[3].
-Lebec est président du Bureau des constatations médicales de Lourdes de 1920 à 1923[4].
+En 1909, lors de la fondation de la nouvelle Société des chirurgiens de Paris, il en devient vice-président du premier bureau.
+Lebec est président du Bureau des constatations médicales de Lourdes de 1920 à 1923.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89douard_Le_Bec</t>
+          <t>Édouard_Le_Bec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lourdes et Franc-maçonnerie (1938)
 Preuves médicales du miracle, étude clinique [Lettre de S. Em. le cardinal Granito di Belmonte. 6e édition] (1930)
